--- a/_manuscript/s2_table_valuation_methods.xlsx
+++ b/_manuscript/s2_table_valuation_methods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Category</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Notes/indicators</t>
-  </si>
-  <si>
     <t>Examples in included corpus</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Information is used to update a decision-maker’s prior beliefs about potential outcomes, generally to reduce uncertainty and/or variance in expected outcome.  Accounts for decision-maker’s prior beliefs about the quality of information.</t>
   </si>
   <si>
-    <t>Explicit comparison to counterfactual, often in the form of a payoff matrix.  Decisionmaker/stakeholder subjective beliefs about probabilities of outcomes and quality of information are explicitly accounted for.</t>
-  </si>
-  <si>
     <t>Brathwaite and Saleh 2013, Bouma et al. 2011, Luseno et al. 2003</t>
   </si>
   <si>
@@ -62,42 +56,21 @@
     <t>Subset of Bayesian Decision Analysis. Compares expected/realized value of outcome with ESI vs counterfactual. Decision-maker’s prior beliefs not addressed. </t>
   </si>
   <si>
-    <t>Explicit comparison to counterfactual, often in the form of a payoff matrix.  Decisionmaker/stakeholder subjective beliefs about probabilities of outcomes and quality of information are not accounted for.</t>
-  </si>
-  <si>
-    <t>Macauley 2006</t>
-  </si>
-  <si>
     <t>Cost-benefit analysis</t>
   </si>
   <si>
-    <t>Expected benefit minus cost of acquiring information to improve decision context.  Counterfactual is often implicit (i.e., business as usual - don’t invest in new information).  Flows of benefits and costs over time are expressed on a common basis in terms of net present value.</t>
-  </si>
-  <si>
-    <t>Li et a. 2017, Vuolo et al. 2015</t>
-  </si>
-  <si>
     <t>Real options analysis</t>
   </si>
   <si>
     <t>Real options value based on the right, but not obligation, to act in the future based on resolution of uncertain outcomes. </t>
   </si>
   <si>
-    <t>Difference in value is determined by the difference in expected outcome between acting now with high uncertainty, or maintaining the option to wait for uncertainty to be resolved before acting.</t>
-  </si>
-  <si>
     <t>Cooke and Golub 2020, Fuss et al. 2006</t>
   </si>
   <si>
     <t>Econometric analysis</t>
   </si>
   <si>
-    <t>Information is included in econometric analysis as an independent/predictor variable; its effect on outcome variable (monetary or other benefit) is used to determine value of information</t>
-  </si>
-  <si>
-    <t>Explicit inclusion of information state(s) in econometric analysis as categorical or continuous variable.</t>
-  </si>
-  <si>
     <t>Bridges et al. 2018, Diana and Farida 2021</t>
   </si>
   <si>
@@ -107,21 +80,9 @@
     <t>Market price-based methods</t>
   </si>
   <si>
-    <t>Uses prices of ES traded in markets (e.g., water, timber) as a proxy for its monetary value</t>
-  </si>
-  <si>
-    <t>Purchase of commercial ESI e.g., commercial satellite data, market price sets floor for expected value to buyer, as it is at or below buyer’s willingness to pay..  </t>
-  </si>
-  <si>
     <t>Market cost-based methods</t>
   </si>
   <si>
-    <t>Estimate the costs that are averted due to the ES functioning: costs of replacing an ES (e.g. waste treatment) or mitigating environmental damage (e.g. natural hazard mitigation by forests). The production function estimates how much an ES contributes to the delivery of a marketed good</t>
-  </si>
-  <si>
-    <t>Market cost generally applied to replacement of lost ecosystem services or avoided damages; information used to avoid damage or loss of ES would indicate a decision analysis method.</t>
-  </si>
-  <si>
     <t>Stated preference (contingent valuation; choice modeling)</t>
   </si>
   <si>
@@ -131,18 +92,9 @@
     <t>Revealed preference (travel cost; hedonic pricing)</t>
   </si>
   <si>
-    <t>Observations of participant behavior are used to deduce willingness to pay, based on cost of that behavior.</t>
-  </si>
-  <si>
     <t>Benefit transfer</t>
   </si>
   <si>
-    <t>Estimates the monetary value of an ES by transferring a measure estimated in a similar context</t>
-  </si>
-  <si>
-    <t>Value of ESI estimated for one context is applied to a new context, based on contextual similarities.</t>
-  </si>
-  <si>
     <t>Monetary valuation methods - Mixed (quantitative and qualitative)</t>
   </si>
   <si>
@@ -176,9 +128,6 @@
     <t>Time use surveys </t>
   </si>
   <si>
-    <t>Captures individuals’ willingness to give up time (WTT) for activities that promote ES maintenance</t>
-  </si>
-  <si>
     <t>Psychometric surveys </t>
   </si>
   <si>
@@ -263,9 +212,6 @@
     <t>Participatory scenario planning </t>
   </si>
   <si>
-    <t>A tool for analysing future prospects of change in ES and its trade-offs. Involves the participatory identification of storylines, drivers of change, uncertainties and scenario outcomes</t>
-  </si>
-  <si>
     <t>Mediated modelling </t>
   </si>
   <si>
@@ -278,20 +224,77 @@
     <t>Stakeholders create a map via consensus, indicating valuable ES and landscape futures</t>
   </si>
   <si>
-    <t>Questionnaire/survey asking about monetary preferences/willness to pay - i.e., a simulated market price. Respondent selects sets of price/quality at which they would purchase ESI. </t>
-  </si>
-  <si>
-    <t>Compares expected/realized value of outcome with new information to the cost of obtaining that information (implicit counterfactual is outcome with existing information, or other source new info/cost of new info).  Flows of benefits and costs over time are expressed on a common basis in terms of their net present value.  For our purposes, the cost must be related to the cost of obtaining information, not the costs of implementing a program/decision. Benefits can be *avoided costs* e.g., use of ESI helps avoid loss of crop profits</t>
-  </si>
-  <si>
-    <t>Travel cost method analyses individual choices in markets related to ES. Travel cost methods use the costs of travel to a natural area as a measure of the value of recreation. Hedonic pricing method reveals the monetary value of ES (e.g. green areas) mainly through house prices</t>
+    <t>Harris et al. 2000, Hautala et al. 2008</t>
+  </si>
+  <si>
+    <t>Jabbour et al. 2020, Kim et al. 2022</t>
+  </si>
+  <si>
+    <t>Stroming et al. 2020</t>
+  </si>
+  <si>
+    <t>none found</t>
+  </si>
+  <si>
+    <t>Amegnaglo et al. 2022, Diana and Ibrahim 2020, Safar et al. 2022</t>
+  </si>
+  <si>
+    <t>Altamirano et al. 2020, Colloredo et al. 2020</t>
+  </si>
+  <si>
+    <t>Taramelli et al. 2020</t>
+  </si>
+  <si>
+    <t>Boyd et al. 2022, Bruno Soares 2017, Luseno et al. 2003</t>
+  </si>
+  <si>
+    <t>Eilola et al. 2023, Roberts et al. 2022, Sciavon et al. 2023</t>
+  </si>
+  <si>
+    <t>Seelan et al. 2003, Seielstad et al. 2002</t>
+  </si>
+  <si>
+    <t>Parajuli et al. 2020</t>
+  </si>
+  <si>
+    <t>Compares expected/realized value of outcome with new information to the cost of obtaining that information.  Flows of benefits and costs over time are expressed on a common basis in terms of their net present value.  Benefits can be *avoided costs* e.g., use of ESI helps avoid loss of crop profits</t>
+  </si>
+  <si>
+    <t>Information is explicitly included in econometric analysis as an independent/predictor variable; its effect on outcome variable (monetary or other benefit) is used to determine value of information</t>
+  </si>
+  <si>
+    <t>Estimate the costs that are averted due to the ESI application. The production function estimates the degree to which  ESI contributes to the delivery of a marketed good</t>
+  </si>
+  <si>
+    <t>Uses prices of ESI traded in markets (e.g., commercial satellite imagery) as a proxy for its monetary value</t>
+  </si>
+  <si>
+    <t>Travel cost method analyses individual choices in markets related to ESI. Travel cost methods use the costs of travel to a natural area as a measure of the value of recreation. Hedonic pricing method reveals the monetary value of ESI mainly through house prices</t>
+  </si>
+  <si>
+    <t>Estimates the monetary value of ESI by transferring a measure estimated in a similar context</t>
+  </si>
+  <si>
+    <t>Captures individuals’ willingness to give up time (WTT) for activities that promote ESI production/maintenance</t>
+  </si>
+  <si>
+    <t>A tool for analysing future prospects of change in ESI and its trade-offs. Involves the participatory identification of storylines, drivers of change, uncertainties and scenario outcomes</t>
+  </si>
+  <si>
+    <t>Li et al. 2017, Morretta et al. 2023, Vuolo et al. 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forney et al. 2012, Herr et al. 2020, Macauley 2006, Oddo and Bolten 2019, </t>
+  </si>
+  <si>
+    <t>Newbold et al. 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +303,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="6"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -387,34 +397,32 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,418 +705,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:XFD11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D29" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/_manuscript/s2_table_valuation_methods.xlsx
+++ b/_manuscript/s2_table_valuation_methods.xlsx
@@ -74,9 +74,6 @@
     <t>Bridges et al. 2018, Diana and Farida 2021</t>
   </si>
   <si>
-    <t>Monetary valuation methods (quantitative)</t>
-  </si>
-  <si>
     <t>Market price-based methods</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Benefit transfer</t>
   </si>
   <si>
-    <t>Monetary valuation methods - Mixed (quantitative and qualitative)</t>
-  </si>
-  <si>
     <t>Economic field experiments</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Combines stated preference valuation methods with elements of deliberative processes</t>
   </si>
   <si>
-    <t>Non-monetary valuation methods (quantitative)</t>
-  </si>
-  <si>
     <t>Surveys of preference assessments </t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>Elicits data on individual attitudes, views, reported behaviour, motivations and values towards ESI</t>
   </si>
   <si>
-    <t>Non-monetary valuation methods - mixed (qualitative and quantitative)</t>
-  </si>
-  <si>
     <t>Delphi Method </t>
   </si>
   <si>
@@ -149,9 +137,6 @@
     <t>Analyses subjectivity (i.e. attitudes, shared perceptions and worldviews) through individual ranking of statements. Common worldviews are elucidated through factor analysis</t>
   </si>
   <si>
-    <t>Non-monetary valuation methods (qualitative)</t>
-  </si>
-  <si>
     <t>Semi-structured and in-depth interviews </t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>An externally-guided group discussion about a topic. Aimed at discovering different positions and to explore how participants interact in discussion</t>
   </si>
   <si>
-    <t>Non-monetary valuation methods - deliberative</t>
-  </si>
-  <si>
     <t>Citizen juries </t>
   </si>
   <si>
@@ -288,13 +270,31 @@
   </si>
   <si>
     <t>Newbold et al. 2022</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Monetary valuation methods (quantitative)</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Monetary valuation methods - Mixed (quantitative and qualitative)</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Non-monetary valuation methods (quantitative)</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Non-monetary valuation methods - mixed (qualitative and quantitative)</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Non-monetary valuation methods (qualitative)</t>
+  </si>
+  <si>
+    <t>Preference elicitation: Non-monetary valuation methods - deliberative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,17 +310,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,26 +402,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -422,8 +420,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,405 +715,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="4" width="29.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="102" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D29" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D30" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>69</v>
+      <c r="D31" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
